--- a/va_facility_data_2025-02-20/Goshen VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Goshen%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Goshen VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Goshen%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R286dceb7cfb147dc986f10288072e062"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4b1b8ca4cb8545a69941a7271f7bb53f"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rfcdc6ba0806e4dc2a47f7e1c8c8dcf16"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R5be54e0cece2437c92b02cd801dd5f7c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0a5045262e8c4eb0a73a98b59b287b87"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Reeb78ee6a7084959b5f56c1c31f278c9"/>
   </x:sheets>
 </x:workbook>
 </file>
